--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCF/10/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCF/10/seed3/result_data_RandomForest.xlsx
@@ -525,7 +525,7 @@
         <v>-6.27</v>
       </c>
       <c r="E5" t="n">
-        <v>12.94889999999999</v>
+        <v>12.8145</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         <v>-8.59</v>
       </c>
       <c r="E6" t="n">
-        <v>12.741</v>
+        <v>12.5412</v>
       </c>
     </row>
     <row r="7">
@@ -553,7 +553,7 @@
         <v>6.56</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.95380000000001</v>
+        <v>-12.3352</v>
       </c>
       <c r="D7" t="n">
         <v>-9.31</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-20.55619999999998</v>
+        <v>-20.53919999999997</v>
       </c>
       <c r="B10" t="n">
         <v>9.35</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.38780000000003</v>
+        <v>-22.67970000000004</v>
       </c>
       <c r="B12" t="n">
         <v>5.38</v>
@@ -652,7 +652,7 @@
         <v>-21.95</v>
       </c>
       <c r="B13" t="n">
-        <v>5.9796</v>
+        <v>5.763099999999998</v>
       </c>
       <c r="C13" t="n">
         <v>-13.63</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.28660000000003</v>
+        <v>-22.54710000000003</v>
       </c>
       <c r="B18" t="n">
         <v>5.81</v>
@@ -774,7 +774,7 @@
         <v>5.51</v>
       </c>
       <c r="C20" t="n">
-        <v>-13.5013</v>
+        <v>-14.91829999999999</v>
       </c>
       <c r="D20" t="n">
         <v>-8.140000000000001</v>
